--- a/Projects/GSKNZ/Data/gsk_set_up.xlsx
+++ b/Projects/GSKNZ/Data/gsk_set_up.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]set_up!$a$90:#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -74,7 +73,7 @@
     <t xml:space="preserve">Include</t>
   </si>
   <si>
-    <t xml:space="preserve">Denture Care,Toothpaste,Topical,Systemic,Sinus,Allergy</t>
+    <t xml:space="preserve">Denture,Sensitive Toothpaste,Topical,Adult,Sinus,Allergy</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
@@ -84,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topical,Adult</t>
   </si>
 </sst>
 </file>
@@ -200,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,6 +239,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,20 +255,28 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -342,30 +356,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -406,7 +420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -432,7 +446,7 @@
       <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -456,43 +470,50 @@
       <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="17" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="F4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMA4" s="18"/>
+      <c r="AMB4" s="18"/>
+      <c r="AMC4" s="18"/>
+      <c r="AMD4" s="18"/>
+      <c r="AME4" s="18"/>
+      <c r="AMF4" s="18"/>
+      <c r="AMG4" s="18"/>
+      <c r="AMH4" s="18"/>
+      <c r="AMI4" s="18"/>
+      <c r="AMJ4" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
